--- a/biology/Microbiologie/Vibrionaceae/Vibrionaceae.xlsx
+++ b/biology/Microbiologie/Vibrionaceae/Vibrionaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vibrionaceae sont une famille de bacilles Gram négatifs incurvés et très mobiles de l'ordre des « Vibrionales ». Son nom provient de Vibrio qui est le genre type de cette famille.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vibrionaceae sont souvent confondues avec les entérobactéries et les Pseudomonas avec lesquelles elles partagent certaines propriétés :
 Cultivées sur milieux ordinaires.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genres validement publiés
-Selon la LPSN  (8 décembre 2022)[2] :
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (8 décembre 2022) :
 Aliivibrio Urbanczyk et al. 2007
 Catenococcus Sorokin 1994
 Echinimonas Nedashkovskaya et al. 2013
@@ -564,8 +583,43 @@
 Veronia Gomez-Gil et al. 2022
 Vibrio Pacini 1854 – genre type
 De plus les genres Allomonas, Beneckea et Lucibacterium ont été reclassés dans le genre Vibrio.
-Genres en attente de publication valide
-Selon la LPSN  (8 décembre 2022)[2] les genres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vibrionaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vibrionaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (8 décembre 2022) les genres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
 « Agarbacterium » Angst 1929
 « Corallibacterium » Hettiarachchi et al. 2018
 « Marinovibrio » Rueger 1972
